--- a/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
@@ -451,463 +451,616 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F16"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
           <t>007234</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C16" t="inlineStr">
         <is>
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>89.42</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>3.90</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
         <v>6</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001215</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002555</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -917,7 +1070,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -938,15 +1091,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -958,26 +1121,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>050001</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>博时价值增长混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>30.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>8</v>
+          <t>86.14</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.89</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4714</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -986,26 +1159,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>010490</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>鹏华高质量增长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>25.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0326</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -1014,25 +1197,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>160607</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>鹏华价值优势混合(LOF)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>92.84</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8611</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1042,26 +1235,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6458</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1070,26 +1273,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>050201</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>博时价值增长贰号混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>2</v>
+          <t>85.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6130</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1108,15 +1321,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>10.05</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>92.54</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>4.05</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4070</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1136,15 +1359,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>7.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>60.41</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>2.99</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2332</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1154,26 +1387,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010490</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合A</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>10</v>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -1182,26 +1425,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010491</t>
+          <t>009164</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合C</t>
+          <t>中加聚庆六个月定期开放混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0751</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -1210,26 +1463,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>050001</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>博时价值增长混合</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.89</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>7</v>
+          <t>33.48</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0729</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -1238,26 +1501,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>050201</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>博时价值增长贰号混合</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.90</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>7</v>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0544</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="13">
@@ -1266,26 +1539,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>080002</t>
+          <t>009165</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长盛创新先锋混合</t>
+          <t>中加聚庆六个月定期开放混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>77.86</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>22.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -1294,26 +1577,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>160526</t>
+          <t>006700</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+          <t>红土创新稳健混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1322,26 +1615,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>007234</t>
+          <t>010491</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+          <t>鹏华高质量增长混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>4.21</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>9</v>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0230</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1350,26 +1653,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>160607</t>
+          <t>080002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华价值优势混合(LOF)</t>
+          <t>长盛创新先锋混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>4.13</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>9</v>
+          <t>77.86</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1378,26 +1691,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>006701</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>红土创新稳健混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>5</v>
+          <t>23.40</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -1406,26 +1729,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.09</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>23.90</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -1434,26 +1767,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>009164</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合A</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>4</v>
+          <t>90.01</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -1462,26 +1805,30 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>009165</t>
+          <t>007234</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>22.36</t>
-        </is>
-      </c>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
-          <t>1.14</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>4</v>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1813,7 +1814,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>91.20</t>
@@ -1829,6 +1829,740 @@
       </c>
       <c r="H20" t="n">
         <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30.13</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.38</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4342</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>21.71</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0095</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.07</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.8292</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8197</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>12.47</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.55</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5986</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.03</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.82</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3971</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>8.66</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>62.79</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3152</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009077</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009078</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>红土创新稳进混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>26.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.82</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0755</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0527</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009164</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0514</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009165</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加聚庆六个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0224</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.33</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>33.81</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.60</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>22.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr"/>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2547,7 +2548,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>80.11</t>
@@ -2563,6 +2563,776 @@
       </c>
       <c r="H19" t="n">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>050001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时价值增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>81.03</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2916</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.32</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7476</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160607</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华价值优势混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.62</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7206</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010490</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>17.35</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.6576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000979</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城沪港深精选股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>21.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>83.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5741</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>050201</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>博时价值增长贰号混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>83.08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5386</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.58</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>61.10</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3851</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>206002</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华精选成长混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.15</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.53</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2368</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011073</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华安润混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0761</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004100</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>鹏华安益增强混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0552</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0476</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>69.76</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0227</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010491</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏华高质量增长混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0144</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011074</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏华安润混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>25.87</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23.70</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006231</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006232</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>国融融君灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>65.44</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr"/>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>81.25</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3317,7 +3318,6 @@
           <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>81.25</t>
@@ -3333,6 +3333,106 @@
       </c>
       <c r="H20" t="n">
         <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>19</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>18</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>15</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3346,7 +3347,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3357,17 +3358,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3377,14 +3398,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>19</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.47</v>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3393,14 +3436,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>18</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.93</v>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -3409,14 +3474,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.67</v>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3425,13 +3512,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>19</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>15</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>1.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3707,7 +3708,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3718,17 +3719,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3738,14 +3759,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>8</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.16</v>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -3754,14 +3797,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>19</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.47</v>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -3770,14 +3835,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.93</v>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -3786,14 +3873,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.67</v>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -3802,13 +3911,319 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>8</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>19</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>19</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>15</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>1.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4106,7 +4107,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4117,17 +4118,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4137,14 +4158,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.44</v>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -4153,14 +4196,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>8</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.16</v>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -4169,14 +4234,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>19</v>
-      </c>
-      <c r="D4" t="n">
-        <v>5.47</v>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -4185,14 +4272,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>18</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.93</v>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -4201,14 +4310,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>19</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.67</v>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4217,13 +4348,297 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.93</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>15</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>1.62</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H16"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6334</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4005</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.44</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1951</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>8</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -622,36 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001215</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1512</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>5.47</v>
       </c>
     </row>
     <row r="6">
@@ -660,36 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0784</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.93</v>
       </c>
     </row>
     <row r="7">
@@ -698,36 +568,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0659</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>19</v>
+      </c>
+      <c r="D7" t="n">
+        <v>5.67</v>
       </c>
     </row>
     <row r="8">
@@ -736,333 +584,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002555</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>15</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.62</v>
       </c>
     </row>
   </sheetData>
@@ -1071,6 +600,1162 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.63</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1478</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0629</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0405</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010657</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010658</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>海富通欣睿混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>22.03</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010154</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0077</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>23.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010153</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>中加中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0450</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005522</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰保兴吉年福定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>29.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0279</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.81</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0198</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009232</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>24.59</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009233</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华安惠混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>24.87</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1137,26 +1822,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>30.09</t>
+          <t>27.02</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>86.14</t>
+          <t>81.03</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.89</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.4714</t>
+          <t>1.2916</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -1165,36 +1850,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>010490</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合A</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>25.56</t>
+          <t>15.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>1.0326</t>
+          <t>0.7476</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -1213,26 +1898,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>20.85</t>
+          <t>18.29</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>92.84</t>
+          <t>90.62</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>3.94</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.8611</t>
+          <t>0.7206</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1241,32 +1926,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160526</t>
+          <t>010490</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+          <t>鹏华高质量增长混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>15.34</t>
+          <t>17.35</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6458</t>
+          <t>0.6576</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1279,36 +1964,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>050201</t>
+          <t>000979</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>博时价值增长贰号混合</t>
+          <t>景顺长城沪港深精选股票</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>12.51</t>
+          <t>21.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>85.43</t>
+          <t>83.34</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>4.90</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.6130</t>
+          <t>0.5741</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -1317,36 +2002,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>206002</t>
+          <t>050201</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>鹏华精选成长混合</t>
+          <t>博时价值增长贰号混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>10.05</t>
+          <t>11.06</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>92.54</t>
+          <t>83.08</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.05</t>
+          <t>4.87</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.4070</t>
+          <t>0.5386</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -1365,26 +2050,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>7.80</t>
+          <t>9.58</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>60.41</t>
+          <t>61.10</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.99</t>
+          <t>4.02</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2332</t>
+          <t>0.3851</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
@@ -1393,36 +2078,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009077</t>
+          <t>206002</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>红土创新稳进混合A</t>
+          <t>鹏华精选成长混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>3.83</t>
+          <t>6.15</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>92.53</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>3.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0800</t>
+          <t>0.2368</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1431,36 +2116,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009164</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合A</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>6.59</t>
+          <t>2.86</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>69.76</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0751</t>
+          <t>0.0781</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -1469,36 +2154,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>009078</t>
+          <t>011073</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>红土创新稳进混合C</t>
+          <t>鹏华安润混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>3.49</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>33.48</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.09</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0729</t>
+          <t>0.0761</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -1507,32 +2192,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>004100</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>鹏华安益增强混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>5.33</t>
+          <t>6.90</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>23.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0544</t>
+          <t>0.0552</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -1545,36 +2230,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009165</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中加聚庆六个月定期开放混合C</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>5.53</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.36</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0365</t>
+          <t>0.0476</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="14">
@@ -1583,36 +2268,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006700</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>红土创新稳健混合A</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.47</t>
+          <t>0.83</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>69.76</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>2.73</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0232</t>
+          <t>0.0227</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15">
@@ -1631,26 +2316,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.57</t>
+          <t>0.38</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>93.14</t>
+          <t>92.68</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>4.04</t>
+          <t>3.79</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0230</t>
+          <t>0.0144</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -1659,36 +2344,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>080002</t>
+          <t>011074</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长盛创新先锋混合</t>
+          <t>鹏华安润混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.51</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>77.86</t>
+          <t>25.87</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.01</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0163</t>
+          <t>0.0131</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1697,36 +2382,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>006701</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>红土创新稳健混合C</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.19</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23.40</t>
+          <t>23.70</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.93</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0094</t>
+          <t>0.0072</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18">
@@ -1735,32 +2420,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>006231</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>国融融君灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.81</t>
+          <t>0.10</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>23.90</t>
+          <t>65.44</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -1773,36 +2458,34 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>004250</t>
+          <t>006232</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>银河量化优选混合</t>
+          <t>国融融君灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.54</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>90.01</t>
+          <t>65.44</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1.40</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0076</t>
-        </is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1821,19 +2504,19 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>81.25</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.21</t>
+          <t>4.88</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -1841,7 +2524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2574,7 +3257,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2641,26 +3324,26 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.02</t>
+          <t>30.09</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>81.03</t>
+          <t>86.14</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.78</t>
+          <t>4.89</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.2916</t>
+          <t>1.4714</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2669,36 +3352,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>160526</t>
+          <t>010490</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+          <t>鹏华高质量增长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>15.32</t>
+          <t>25.56</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>81.25</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.7476</t>
+          <t>1.0326</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2717,26 +3400,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>18.29</t>
+          <t>20.85</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.62</t>
+          <t>92.84</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.94</t>
+          <t>4.13</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.7206</t>
+          <t>0.8611</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2745,32 +3428,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010490</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>鹏华高质量增长混合A</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>17.35</t>
+          <t>15.34</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.6576</t>
+          <t>0.6458</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -2783,36 +3466,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>000979</t>
+          <t>050201</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>景顺长城沪港深精选股票</t>
+          <t>博时价值增长贰号混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>21.03</t>
+          <t>12.51</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>83.34</t>
+          <t>85.43</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>4.90</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.5741</t>
+          <t>0.6130</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -2821,36 +3504,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>050201</t>
+          <t>206002</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>博时价值增长贰号混合</t>
+          <t>鹏华精选成长混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>11.06</t>
+          <t>10.05</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>83.08</t>
+          <t>92.54</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.5386</t>
+          <t>0.4070</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -2869,26 +3552,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>9.58</t>
+          <t>7.80</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>61.10</t>
+          <t>60.41</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>4.02</t>
+          <t>2.99</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.3851</t>
+          <t>0.2332</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -2897,36 +3580,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>206002</t>
+          <t>009077</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>鹏华精选成长混合</t>
+          <t>红土创新稳进混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>6.15</t>
+          <t>3.83</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>92.53</t>
+          <t>33.48</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.85</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2368</t>
+          <t>0.0800</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -2935,36 +3618,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>009164</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>中加聚庆六个月定期开放混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>2.86</t>
+          <t>6.59</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>69.76</t>
+          <t>22.36</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0781</t>
+          <t>0.0751</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
@@ -2973,36 +3656,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011073</t>
+          <t>009078</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>鹏华安润混合A</t>
+          <t>红土创新稳进混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>33.48</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.09</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0761</t>
+          <t>0.0729</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12">
@@ -3011,32 +3694,32 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>004100</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>鹏华安益增强混合</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>6.90</t>
+          <t>5.33</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>23.23</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.80</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0552</t>
+          <t>0.0544</t>
         </is>
       </c>
       <c r="H12" t="n">
@@ -3049,36 +3732,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>009165</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>中加聚庆六个月定期开放混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>5.53</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>22.36</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0476</t>
+          <t>0.0365</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="14">
@@ -3087,36 +3770,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>006700</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>红土创新稳健混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.47</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>69.76</t>
+          <t>23.40</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.73</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0227</t>
+          <t>0.0232</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -3135,26 +3818,26 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.57</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>92.68</t>
+          <t>93.14</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>3.79</t>
+          <t>4.04</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0144</t>
+          <t>0.0230</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -3163,36 +3846,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011074</t>
+          <t>080002</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>鹏华安润混合C</t>
+          <t>长盛创新先锋混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>25.87</t>
+          <t>77.86</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.01</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0131</t>
+          <t>0.0163</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -3201,36 +3884,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>006701</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>红土创新稳健混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>23.70</t>
+          <t>23.40</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>0.86</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0072</t>
+          <t>0.0094</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -3239,32 +3922,32 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>006231</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合A</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.81</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>65.44</t>
+          <t>23.90</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>2.08</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0021</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -3277,34 +3960,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>006232</t>
+          <t>004250</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>国融融君灵活配置混合C</t>
+          <t>银河量化优选混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.00</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>65.44</t>
+          <t>90.01</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
       </c>
       <c r="H19" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20">
@@ -3323,1174 +4008,18 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>81.25</t>
+          <t>91.20</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>4.88</t>
+          <t>4.21</t>
         </is>
       </c>
       <c r="G20" t="n">
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009927</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>5.29</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>24.59</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0450</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005522</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华泰保兴吉年福定期开放灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>29.48</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0279</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.81</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>99.01</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0198</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.54</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.23</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.29</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009232</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华安惠混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>24.87</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009928</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>24.59</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009233</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华安惠混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>24.87</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.61</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0032</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005014</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>11.64</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>27.21</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1618</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005775</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>66.34</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0699</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009927</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>23.27</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0493</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.85</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0426</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>005776</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>中加转型动力灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.92</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>66.34</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0394</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>99.24</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0330</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.22</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0281</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005015</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰康景泰回报混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>27.21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0088</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>009928</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.83</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>23.27</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>0.89</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>005561</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.63</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1478</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>005562</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>创金合信中证红利低波动指数C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.82</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0629</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>99.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.35</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0609</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009927</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>23.63</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0405</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>010657</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>海富通欣睿混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>5.23</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0183</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>010658</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>海富通欣睿混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>22.03</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0098</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>010154</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.60</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0077</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009928</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.84</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>23.63</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>0.85</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0071</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010153</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>中加中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.12</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
         <v>9</v>
       </c>
     </row>
@@ -4505,7 +4034,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4516,17 +4045,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4536,14 +4085,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.36</v>
+          <t>160526</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6334</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4552,14 +4123,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.44</v>
+          <t>009857</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4005</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -4568,14 +4161,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>8</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.16</v>
+          <t>260112</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>景顺长城能源基建混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.93</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1951</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -4584,14 +4199,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>19</v>
-      </c>
-      <c r="D5" t="n">
-        <v>5.47</v>
+          <t>001215</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -4600,14 +4237,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>18</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5.93</v>
+          <t>006700</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0784</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -4616,14 +4275,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>19</v>
-      </c>
-      <c r="D7" t="n">
-        <v>5.67</v>
+          <t>510890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>兴业上证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>97.19</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0659</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -4632,14 +4313,333 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>15</v>
-      </c>
-      <c r="D8" t="n">
-        <v>1.62</v>
+          <t>009858</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>501059</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006701</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>红土创新稳健混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>39.60</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0092</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002555</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>博时沪港深优质企业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006729</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009439</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>006730</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>万家中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007234</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>89.42</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D2" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
         <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D5" t="n">
-        <v>5.47</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D6" t="n">
-        <v>5.93</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D7" t="n">
-        <v>5.67</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>19</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>15</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>1.62</v>
       </c>
     </row>
@@ -605,7 +622,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,36 +673,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1478</t>
+          <t>0.1533</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -694,36 +711,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0629</t>
+          <t>0.0797</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -742,26 +759,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>99.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0609</t>
+          <t>0.0668</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -770,36 +787,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0405</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -808,36 +825,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010657</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通欣睿混合A</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.03</t>
+          <t>26.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -846,36 +863,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010658</t>
+          <t>012072</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海富通欣睿混合C</t>
+          <t>中加喜利回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.03</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0378</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -884,36 +901,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -922,36 +939,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>012071</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>中加喜利回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -960,36 +977,262 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>26.72</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1054,32 +1297,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005014</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合A</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.21</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1618</t>
+          <t>0.1478</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1092,36 +1335,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.34</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0699</t>
+          <t>0.0629</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1130,36 +1373,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.27</t>
+          <t>99.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.0609</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1168,32 +1411,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>23.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.0405</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1206,36 +1449,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>010657</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>海富通欣睿混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>66.34</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0394</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1244,36 +1487,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>010658</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>海富通欣睿混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1282,36 +1525,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1320,32 +1563,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005015</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合C</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27.21</t>
+          <t>23.63</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1358,36 +1601,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23.27</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -1396,6 +1639,404 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1755,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2524,7 +3165,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3257,7 +3898,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4028,7 +4669,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
+++ b/数据整理/stocks/A股/上证主板/600350-山东高速.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="D2" t="n">
-        <v>0.52</v>
+        <v>5.03</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="D3" t="n">
-        <v>0.36</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>0.44</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>0.16</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D6" t="n">
-        <v>5.47</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" t="n">
-        <v>5.93</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D8" t="n">
-        <v>5.67</v>
+        <v>5.93</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>19</v>
+      </c>
+      <c r="D9" t="n">
+        <v>5.67</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>15</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>1.62</v>
       </c>
     </row>
@@ -616,7 +633,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -643,7 +660,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -673,36 +690,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>160526</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>5.34</t>
+          <t>16.24</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>50.55</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1533</t>
+          <t>0.6334</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -711,32 +728,32 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>009857</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>博时价值臻选两年持有期灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.32</t>
+          <t>11.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>68.55</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0797</t>
+          <t>0.4005</t>
         </is>
       </c>
       <c r="H3" t="n">
@@ -749,36 +766,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>260112</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>景顺长城能源基建混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.60</t>
+          <t>8.75</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.50</t>
+          <t>63.93</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.57</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0668</t>
+          <t>0.1951</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +804,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>001215</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>博时沪港深优质企业灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2.19</t>
+          <t>3.39</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>79.23</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.40</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0526</t>
+          <t>0.1512</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -825,36 +842,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>006700</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>红土创新稳健混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2.16</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>26.72</t>
+          <t>39.60</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0419</t>
+          <t>0.0784</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7">
@@ -863,36 +880,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>012072</t>
+          <t>510890</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合C</t>
+          <t>兴业上证红利低波动ETF</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.21</t>
+          <t>2.94</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>97.19</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>2.24</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0378</t>
+          <t>0.0659</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
@@ -901,32 +918,32 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>009858</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>博时价值臻选两年持有期灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.27</t>
+          <t>0.77</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>50.55</t>
+          <t>68.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.87</t>
+          <t>3.51</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0364</t>
+          <t>0.0270</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -939,36 +956,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>012071</t>
+          <t>501059</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中加喜利回报一年持有期混合A</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.98</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>38.64</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.71</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0339</t>
+          <t>0.0211</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10">
@@ -977,36 +994,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.39</t>
+          <t>0.78</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>26.72</t>
+          <t>97.75</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.94</t>
+          <t>2.05</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0160</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
@@ -1015,36 +1032,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>851088</t>
+          <t>006701</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>海通量化成长精选一年持有期混合A</t>
+          <t>红土创新稳健混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.38</t>
+          <t>0.19</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>39.60</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0052</t>
+          <t>0.0092</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1070,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>850010</t>
+          <t>002555</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>海通量化成长精选一年持有期混合B</t>
+          <t>博时沪港深优质企业灵活配置混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.25</t>
+          <t>0.18</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>79.23</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>4.46</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0034</t>
+          <t>0.0080</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1108,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>005053</t>
+          <t>006729</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>银河量化价值混合A</t>
+          <t>万家中证500指数增强A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.10</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>78.55</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0017</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1146,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>009439</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.13</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>55.69</t>
+          <t>93.68</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>1.14</t>
+          <t>4.05</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0015</t>
+          <t>0.0024</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1184,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>851099</t>
+          <t>006730</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>海通量化成长精选一年持有期混合C</t>
+          <t>万家中证500指数增强C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>85.56</t>
+          <t>94.34</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>1.50</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0004</t>
+          <t>0.0010</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -1205,27 +1222,22 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>013026</t>
+          <t>007234</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>银河量化价值混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>0.00</t>
+          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.55</t>
+          <t>89.42</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>1.74</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G16" t="n">
@@ -1233,6 +1245,860 @@
       </c>
       <c r="H16" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>510880</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞上证红利ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>142.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.05</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>3.5715</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>090010</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>大成中证红利指数A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>26.42</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3567</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>515180</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>易方达中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>15.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.57</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.2266</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515080</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1466</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>501029</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.97</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1382</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011849</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>西部利得量化价值一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>2.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.36</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0670</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.10</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0613</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>99.39</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0609</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>012708</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0587</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.18</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0438</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005125</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华宝标普中国A股红利机会指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>515890</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>博时中证红利ETF</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>98.84</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012072</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0396</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007801</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>大成中证红利指数C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.30</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0390</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>012071</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中加喜利回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.36</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0357</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>161907</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>26.90</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0078</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>012709</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方红中证东方红红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.64</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>015558</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>万家中证红利指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000706</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮多策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.04</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.74</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
@@ -1246,7 +2112,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1297,36 +2163,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>005775</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>中加转型动力灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.63</t>
+          <t>5.34</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1478</t>
+          <t>0.1533</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -1335,36 +2201,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>2.82</t>
+          <t>3.32</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.64</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.23</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0629</t>
+          <t>0.0797</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1383,26 +2249,26 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>2.59</t>
+          <t>2.60</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>99.53</t>
+          <t>99.50</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.35</t>
+          <t>2.57</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0609</t>
+          <t>0.0668</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5">
@@ -1411,36 +2277,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>4.76</t>
+          <t>2.19</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>2.40</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0405</t>
+          <t>0.0526</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -1449,36 +2315,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010657</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>海富通欣睿混合A</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>5.23</t>
+          <t>2.16</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>22.03</t>
+          <t>26.72</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.0419</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
@@ -1487,36 +2353,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010658</t>
+          <t>012072</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>海富通欣睿混合C</t>
+          <t>中加喜利回报一年持有期混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>22.03</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>0.35</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0098</t>
+          <t>0.0378</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1525,36 +2391,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010154</t>
+          <t>005776</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中加中证500指数增强C</t>
+          <t>中加转型动力灵活配置混合C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.27</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>50.55</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>2.87</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0077</t>
+          <t>0.0364</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -1563,36 +2429,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>012071</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>中加喜利回报一年持有期混合A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>23.63</t>
+          <t>38.64</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>0.85</t>
+          <t>1.71</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0339</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -1601,36 +2467,262 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010153</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中加中证500指数增强A</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.50</t>
+          <t>0.39</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>26.72</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.28</t>
+          <t>1.94</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0064</t>
+          <t>0.0076</t>
         </is>
       </c>
       <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
         <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>851088</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>850010</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合B</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005053</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>银河量化价值混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>005126</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>银河量化稳进混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>55.69</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>851099</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海通量化成长精选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>85.56</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>013026</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>银河量化价值混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1695,32 +2787,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005014</t>
+          <t>005561</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合A</t>
+          <t>创金合信中证红利低波动指数A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>11.64</t>
+          <t>6.63</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>27.21</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.1618</t>
+          <t>0.1478</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -1733,36 +2825,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005775</t>
+          <t>005562</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合A</t>
+          <t>创金合信中证红利低波动指数C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>3.41</t>
+          <t>2.82</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>66.34</t>
+          <t>94.64</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0699</t>
+          <t>0.0629</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1771,36 +2863,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>009927</t>
+          <t>512890</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合A</t>
+          <t>华泰柏瑞中证红利低波动ETF</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>5.54</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>23.27</t>
+          <t>99.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>2.35</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0493</t>
+          <t>0.0609</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1809,32 +2901,32 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005562</t>
+          <t>009927</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数C</t>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.85</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>23.63</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0426</t>
+          <t>0.0405</t>
         </is>
       </c>
       <c r="H5" t="n">
@@ -1847,36 +2939,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>005776</t>
+          <t>010657</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>中加转型动力灵活配置混合C</t>
+          <t>海富通欣睿混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>1.92</t>
+          <t>5.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>66.34</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2.05</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0394</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -1885,36 +2977,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>512890</t>
+          <t>010658</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
+          <t>海富通欣睿混合C</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.36</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>99.24</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2.43</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.0330</t>
+          <t>0.0098</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8">
@@ -1923,36 +3015,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005561</t>
+          <t>010154</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>创金合信中证红利低波动指数A</t>
+          <t>中加中证500指数增强C</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.22</t>
+          <t>0.60</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.30</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0281</t>
+          <t>0.0077</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9">
@@ -1961,32 +3053,32 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005015</t>
+          <t>009928</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>泰康景泰回报混合C</t>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.63</t>
+          <t>0.84</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>27.21</t>
+          <t>23.63</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0088</t>
+          <t>0.0071</t>
         </is>
       </c>
       <c r="H9" t="n">
@@ -1999,36 +3091,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>009928</t>
+          <t>010153</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>工银瑞信聚利18个月定期开放混合C</t>
+          <t>中加中证500指数增强A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.83</t>
+          <t>0.50</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>23.27</t>
+          <t>94.12</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>0.89</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0074</t>
+          <t>0.0064</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2037,6 +3129,404 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.64</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1618</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>005775</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0699</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009927</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005562</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>005776</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中加转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.34</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0394</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>512890</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华泰柏瑞中证红利低波动ETF</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>99.24</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005561</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证红利低波动指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>27.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009928</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>工银瑞信聚利18个月定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2396,7 +3886,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3165,7 +4655,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3898,7 +5388,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4667,623 +6157,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H16"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>160526</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>16.24</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.6334</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>009857</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.41</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.4005</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>260112</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>景顺长城能源基建混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>8.75</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.93</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1951</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001215</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.39</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1512</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>006700</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合A</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.62</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0784</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>510890</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>兴业上证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>97.19</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.24</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0659</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009858</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时价值臻选两年持有期灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.77</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>68.55</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0270</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>501059</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）A</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.52</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0211</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>512890</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华泰柏瑞中证红利低波动ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>97.75</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0160</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006701</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>红土创新稳健混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.19</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>39.60</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0092</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>002555</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>博时沪港深优质企业灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.46</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0080</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006729</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0064</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>009439</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>西部利得中证国有企业红利指数增强（LOF）C</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>0.06</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>93.68</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>006730</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>万家中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>0.07</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>94.34</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.50</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0010</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>007234</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>博时优势企业3年封闭运作灵活配置混合（LOF）C</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>89.42</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>3.90</t>
-        </is>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>6</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>